--- a/biology/Médecine/Parodonte/Parodonte.xlsx
+++ b/biology/Médecine/Parodonte/Parodonte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parodonte, ou périodonte, est l'ensemble des tissus de soutien de la dent (odonte).
 Il comprend :
@@ -520,8 +532,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Innervation sensitive
-On distingue quatre types de terminaisons parodontales[1] : 
+          <t>Innervation sensitive</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>On distingue quatre types de terminaisons parodontales : 
 terminaisons libres à la surface du cément (sur toute la hauteur de la racine) : nocicepteurs et mécanorécepteurs,
 une sorte de corpuscules de Ruffini (apex dentaire) : mécanorécepteurs,
 terminaisons en forme d'anse ou d'anneau (zone de l'hypomochlion) : rôle inconnu,
